--- a/TABLE_DESIGN.xlsx
+++ b/TABLE_DESIGN.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop Application\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop Application\MARBLE SHOP MANAGEMENT\MARBLE-SHOP-MANAGEMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CC6121ED-D993-428D-9E0F-CF72D6FF2A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47A95CDD-D5C4-4F07-9EBD-DDA406919B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37E38B85-17DB-4D72-9E0E-772FF93AC570}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="10332" windowHeight="4764" xr2:uid="{37E38B85-17DB-4D72-9E0E-772FF93AC570}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="134">
   <si>
     <t>TBL_SHOP_DETAILS</t>
   </si>
@@ -617,6 +617,189 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>557540</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>61645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EB06DB2-FC07-465F-A43A-57281322041E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9772650" y="14287500"/>
+          <a:ext cx="14768840" cy="7910245"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1114425</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1231876" cy="172227"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89EED13F-7863-41C2-8546-8E53A1816C74}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17383125" y="8153400"/>
+              <a:ext cx="1231876" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr/>
+              <a14:m>
+                <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:oMathParaPr>
+                    <m:jc m:val="centerGroup"/>
+                  </m:oMathParaPr>
+                  <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                    <a:fld id="{825F15A7-03F4-43D7-82C5-3E23DA2F108C}" type="mathplaceholder">
+                      <a:rPr lang="en-US" sz="1100" i="1">
+                        <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      </a:rPr>
+                      <a:t>Type equation here.</a:t>
+                    </a:fld>
+                  </m:oMath>
+                </m:oMathPara>
+              </a14:m>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback xmlns="">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="4" name="TextBox 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89EED13F-7863-41C2-8546-8E53A1816C74}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17383125" y="8153400"/>
+              <a:ext cx="1231876" cy="172227"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>"Type equation here."</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-US" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -918,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CB3B1C-5827-43D0-ADC7-C6FD42213018}">
   <dimension ref="B1:Z80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="V24" sqref="V24"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1294,7 +1477,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>38</v>
@@ -1309,7 +1492,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>38</v>
@@ -1324,10 +1507,10 @@
         <v>9</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>1</v>
@@ -1335,20 +1518,9 @@
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="D19" s="4">
-        <v>10</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J19" s="1"/>
-      <c r="N19" s="5" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="K19" s="5" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1359,26 +1531,26 @@
       <c r="J20" s="1"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.3">
-      <c r="I21" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="J21" s="1"/>
+      <c r="H21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="K21" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="L21" s="2" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O21" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P21" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q21" s="2" t="s">
         <v>58</v>
       </c>
     </row>
@@ -2415,6 +2587,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>
 

--- a/TABLE_DESIGN.xlsx
+++ b/TABLE_DESIGN.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop Application\MARBLE SHOP MANAGEMENT\MARBLE-SHOP-MANAGEMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2E70BD3-CD6A-4183-B5D7-7E2889D939E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83745F34-389E-4997-A3BD-99B2ABB61127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37E38B85-17DB-4D72-9E0E-772FF93AC570}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="211">
   <si>
     <t>TBL_SHOP_DETAILS</t>
   </si>
@@ -214,9 +215,6 @@
     <t>UNIT_CODE</t>
   </si>
   <si>
-    <t>TBL_PRODUCT</t>
-  </si>
-  <si>
     <t xml:space="preserve">PRODUCT_ID </t>
   </si>
   <si>
@@ -313,12 +311,6 @@
     <t>20-PCS</t>
   </si>
   <si>
-    <t>TBL_PROD_PROP</t>
-  </si>
-  <si>
-    <t>PRODUCT_COLOR</t>
-  </si>
-  <si>
     <t>PRODUCT_TYPE</t>
   </si>
   <si>
@@ -343,9 +335,6 @@
     <t>FEEDBACK_ID</t>
   </si>
   <si>
-    <t>NAME</t>
-  </si>
-  <si>
     <t>EMAIL</t>
   </si>
   <si>
@@ -620,6 +609,75 @@
   </si>
   <si>
     <t>THEME_SETTING</t>
+  </si>
+  <si>
+    <t>menu</t>
+  </si>
+  <si>
+    <t>shopDetails</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>UNIT_6</t>
+  </si>
+  <si>
+    <t>FT</t>
+  </si>
+  <si>
+    <t>FULL_NAME</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <r>
+      <t>Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Y</t>
+    </r>
+  </si>
+  <si>
+    <t>TBL_PRODUCTS</t>
+  </si>
+  <si>
+    <t>TBL_PRODUCT_PROP</t>
+  </si>
+  <si>
+    <t>PRODUCT_COLOR_CODE</t>
+  </si>
+  <si>
+    <t>PRODUCT_COLOR_NAME</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>TBL_ROLE</t>
+  </si>
+  <si>
+    <t>ROLE_ID</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>MRP</t>
+  </si>
+  <si>
+    <t>TOTAL MRP</t>
   </si>
 </sst>
 </file>
@@ -763,7 +821,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -835,6 +893,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1152,10 +1213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CB3B1C-5827-43D0-ADC7-C6FD42213018}">
-  <dimension ref="B1:AB99"/>
+  <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="M25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W40" sqref="W40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1163,7 +1224,7 @@
     <col min="1" max="1" width="8.88671875" style="15"/>
     <col min="2" max="2" width="14.6640625" style="15" customWidth="1"/>
     <col min="3" max="3" width="19.33203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="20.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="15" customWidth="1"/>
     <col min="5" max="5" width="24" style="15" customWidth="1"/>
     <col min="6" max="6" width="17.33203125" style="15" customWidth="1"/>
     <col min="7" max="8" width="20.109375" style="15" customWidth="1"/>
@@ -1189,7 +1250,7 @@
     <col min="29" max="16384" width="8.88671875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:26" x14ac:dyDescent="0.3">
       <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1201,13 +1262,13 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:26" x14ac:dyDescent="0.3">
       <c r="K2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L2" s="1"/>
     </row>
-    <row r="3" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
@@ -1224,7 +1285,9 @@
         <v>7</v>
       </c>
       <c r="H3" s="2"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="25" t="s">
+        <v>195</v>
+      </c>
       <c r="J3" s="11"/>
       <c r="K3" s="1" t="s">
         <v>1</v>
@@ -1269,8 +1332,11 @@
       <c r="Y3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="Z3" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="3:26" x14ac:dyDescent="0.3">
       <c r="C4" s="15" t="s">
         <v>21</v>
       </c>
@@ -1330,19 +1396,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:26" x14ac:dyDescent="0.3">
       <c r="K5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L5" s="1"/>
     </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:26" x14ac:dyDescent="0.3">
       <c r="K6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L6" s="1"/>
     </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:26" x14ac:dyDescent="0.3">
       <c r="E7" s="5" t="s">
         <v>32</v>
       </c>
@@ -1351,13 +1417,13 @@
       </c>
       <c r="L7" s="1"/>
     </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:26" x14ac:dyDescent="0.3">
       <c r="K8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D9" s="2" t="s">
         <v>33</v>
       </c>
@@ -1378,9 +1444,9 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D10" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>38</v>
@@ -1396,9 +1462,9 @@
       </c>
       <c r="L10" s="1"/>
     </row>
-    <row r="11" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D11" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>40</v>
@@ -1423,12 +1489,24 @@
         <v>43</v>
       </c>
       <c r="R11" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="U11" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="V11" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D12" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>45</v>
@@ -1447,18 +1525,24 @@
         <v>1</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4">
+        <v>1</v>
+      </c>
+      <c r="V12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D13" s="4" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>47</v>
@@ -1468,6 +1552,9 @@
       </c>
       <c r="G13" s="4">
         <v>1</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>195</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>1</v>
@@ -1477,18 +1564,27 @@
         <v>2</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4">
+        <v>1</v>
+      </c>
+      <c r="V13" s="4">
+        <v>1</v>
+      </c>
+      <c r="W13" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="14" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D14" s="4" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>48</v>
@@ -1507,18 +1603,24 @@
         <v>3</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R14" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4">
+        <v>1</v>
+      </c>
+      <c r="V14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D15" s="4" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>49</v>
@@ -1537,18 +1639,24 @@
         <v>4</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="R15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="3:25" x14ac:dyDescent="0.3">
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4">
+        <v>1</v>
+      </c>
+      <c r="V15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D16" s="4" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>47</v>
@@ -1564,9 +1672,9 @@
       </c>
       <c r="L16" s="1"/>
     </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D17" s="4" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>50</v>
@@ -1582,9 +1690,9 @@
       </c>
       <c r="L17" s="1"/>
     </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D18" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>51</v>
@@ -1600,9 +1708,9 @@
       </c>
       <c r="L18" s="1"/>
     </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D19" s="4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>52</v>
@@ -1621,13 +1729,13 @@
         <v>54</v>
       </c>
     </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L20" s="1"/>
     </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1654,16 +1762,16 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K22" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L22" s="1"/>
       <c r="N22" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O22" s="4" t="s">
         <v>131</v>
-      </c>
-      <c r="O22" s="4" t="s">
-        <v>135</v>
       </c>
       <c r="P22" s="4">
         <v>30</v>
@@ -1675,22 +1783,22 @@
         <v>20</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="T22" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L23" s="1"/>
       <c r="N23" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P23" s="4">
         <v>20</v>
@@ -1702,22 +1810,25 @@
         <v>10</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="T23" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="U23" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K24" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L24" s="1"/>
       <c r="N24" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="O24" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P24" s="4">
         <v>30</v>
@@ -1729,22 +1840,22 @@
         <v>20</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="T24" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K25" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L25" s="1"/>
       <c r="N25" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="P25" s="4">
         <v>30</v>
@@ -1756,69 +1867,69 @@
         <v>20</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="T25" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="K26" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L26" s="1"/>
     </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F27" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="K27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B29" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="K28" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L28" s="1"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="K29" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L29" s="1"/>
     </row>
-    <row r="30" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>22</v>
@@ -1836,25 +1947,28 @@
         <v>100</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I30" s="3">
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L30" s="1"/>
       <c r="R30" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="2:20" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="B31" s="3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>22</v>
@@ -1872,22 +1986,22 @@
         <v>101</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I31" s="3">
         <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L31" s="1"/>
     </row>
-    <row r="32" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>22</v>
@@ -1905,13 +2019,13 @@
         <v>102</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I32" s="3">
         <v>1</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>1</v>
@@ -1920,13 +2034,13 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E33" s="3" t="s">
         <v>22</v>
@@ -1938,53 +2052,53 @@
         <v>520</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="I33" s="3">
         <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L33" s="1"/>
       <c r="N33" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O33" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="O33" s="7" t="s">
+      <c r="P33" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="P33" s="2" t="s">
+      <c r="Q33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="R33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="R33" s="2" t="s">
+      <c r="S33" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="S33" s="2" t="s">
+      <c r="T33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="T33" s="2" t="s">
+      <c r="U33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="U33" s="2" t="s">
+      <c r="V33" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="V33" s="2" t="s">
+      <c r="W33" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="W33" s="2" t="s">
+      <c r="X33" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="X33" s="2" t="s">
+      <c r="Y33" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="Y33" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="Z33" s="11"/>
       <c r="AA33" s="11"/>
@@ -1998,7 +2112,7 @@
         <v>1</v>
       </c>
       <c r="O34" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="P34" s="4">
         <v>96084615</v>
@@ -2023,7 +2137,7 @@
         <v>0.01</v>
       </c>
       <c r="X34" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Y34" s="9" t="s">
         <v>22</v>
@@ -2076,7 +2190,7 @@
     </row>
     <row r="37" spans="2:28" x14ac:dyDescent="0.3">
       <c r="E37" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K37" s="1" t="s">
         <v>1</v>
@@ -2127,10 +2241,10 @@
         <v>55</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K39" s="1" t="s">
         <v>1</v>
@@ -2154,23 +2268,26 @@
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.3">
       <c r="C40" s="4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L40" s="1"/>
       <c r="R40" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
@@ -2205,31 +2322,31 @@
       </c>
       <c r="L42" s="1"/>
       <c r="N42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O42" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>42</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="R42" s="2" t="s">
         <v>43</v>
       </c>
       <c r="S42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="T42" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="U42" s="2" t="s">
         <v>58</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.3">
@@ -2244,13 +2361,13 @@
         <v>1</v>
       </c>
       <c r="P43" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q43" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="Q43" s="4" t="s">
-        <v>135</v>
-      </c>
       <c r="R43" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="S43" s="4">
         <v>100</v>
@@ -2259,7 +2376,7 @@
         <v>100</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="V43" s="4">
         <v>0</v>
@@ -2282,7 +2399,7 @@
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.3">
       <c r="D45" s="5" t="s">
-        <v>93</v>
+        <v>202</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>1</v>
@@ -2300,13 +2417,16 @@
         <v>55</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>94</v>
+        <v>203</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>1</v>
@@ -2315,37 +2435,45 @@
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.3">
       <c r="C48" s="4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>97</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="D48" s="17"/>
       <c r="E48" s="4" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F48" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G48" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H48" s="15" t="s">
+        <v>205</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L48" s="1"/>
       <c r="Q48" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C49" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="D49" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F49" s="4" t="s">
+      <c r="G49" s="4" t="s">
         <v>22</v>
+      </c>
+      <c r="H49" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>1</v>
@@ -2354,15 +2482,16 @@
     </row>
     <row r="50" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C50" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>101</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="D50" s="17"/>
       <c r="E50" s="4" t="s">
         <v>98</v>
       </c>
       <c r="F50" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K50" s="1" t="s">
@@ -2370,38 +2499,39 @@
       </c>
       <c r="L50" s="1"/>
       <c r="N50" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="R50" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="O50" s="2" t="s">
+      <c r="S50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P50" s="2" t="s">
+      <c r="T50" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="Q50" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="R50" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="S50" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="51" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C51" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>109</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="D51" s="17"/>
       <c r="E51" s="4" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F51" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" s="4" t="s">
         <v>22</v>
       </c>
       <c r="K51" s="1" t="s">
@@ -2409,7 +2539,7 @@
       </c>
       <c r="L51" s="1"/>
       <c r="N51" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -2430,6 +2560,9 @@
       <c r="R52" s="4"/>
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
+      <c r="U52" s="15" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="53" spans="3:23" x14ac:dyDescent="0.3">
       <c r="K53" s="1" t="s">
@@ -2466,7 +2599,7 @@
     <row r="56" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C56" s="13"/>
       <c r="D56" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E56" s="13"/>
       <c r="K56" s="1" t="s">
@@ -2480,7 +2613,7 @@
       </c>
       <c r="L57" s="1"/>
       <c r="R57" s="5" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" spans="3:23" x14ac:dyDescent="0.3">
@@ -2488,10 +2621,10 @@
         <v>59</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>1</v>
@@ -2500,10 +2633,10 @@
     </row>
     <row r="59" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C59" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>22</v>
@@ -2513,28 +2646,28 @@
       </c>
       <c r="L59" s="1"/>
       <c r="N59" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="P59" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="R59" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="S59" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="T59" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="Q59" s="2" t="s">
+      <c r="U59" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="R59" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="S59" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="U59" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="V59" s="2" t="s">
         <v>36</v>
@@ -2543,23 +2676,26 @@
     </row>
     <row r="60" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C60" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="F60" s="15" t="s">
+        <v>195</v>
+      </c>
       <c r="K60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L60" s="1"/>
       <c r="N60" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
@@ -2574,10 +2710,10 @@
     </row>
     <row r="61" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C61" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>22</v>
@@ -2595,14 +2731,16 @@
       <c r="T61" s="4"/>
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
-      <c r="W61" s="24"/>
+      <c r="W61" s="24" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="62" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C62" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>22</v>
@@ -2624,10 +2762,10 @@
     </row>
     <row r="63" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C63" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>22</v>
@@ -2648,83 +2786,92 @@
       <c r="W63" s="24"/>
     </row>
     <row r="64" spans="3:23" x14ac:dyDescent="0.3">
+      <c r="C64" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>22</v>
+      </c>
       <c r="K64" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:22" x14ac:dyDescent="0.3">
       <c r="K65" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:22" x14ac:dyDescent="0.3">
       <c r="K66" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E67" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O67" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="T67" s="5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="68" spans="3:22" x14ac:dyDescent="0.3">
+      <c r="K68" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="3:22" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C69" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F69" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="K67" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="O67" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="T67" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="68" spans="3:21" x14ac:dyDescent="0.3">
-      <c r="K68" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" spans="3:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C69" s="12" t="s">
+      <c r="G69" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="D69" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>125</v>
-      </c>
       <c r="H69" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K69" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="O69" s="2" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="P69" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="U69" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="3:21" ht="18" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="70" spans="3:22" ht="18" x14ac:dyDescent="0.3">
       <c r="C70" s="4" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -2735,54 +2882,63 @@
         <v>1</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="O70" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="P70" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="S70" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="T70" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="U70" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="71" spans="3:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="4"/>
       <c r="F71" s="17"/>
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
+      <c r="I71" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="K71" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="Q71" s="15" t="s">
+        <v>199</v>
       </c>
       <c r="S71" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="T71" s="19" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="U71" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="3:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+        <v>82</v>
+      </c>
+      <c r="V71" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72" spans="3:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C72" s="4"/>
       <c r="D72" s="4"/>
       <c r="E72" s="4"/>
@@ -2793,132 +2949,130 @@
         <v>1</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="O72" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="P72" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="S72" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="T72" s="20" t="s">
         <v>180</v>
       </c>
-      <c r="P72" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="S72" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="T72" s="20" t="s">
-        <v>184</v>
-      </c>
       <c r="U72" s="23" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="3:21" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="3:22" x14ac:dyDescent="0.3">
       <c r="K73" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:22" x14ac:dyDescent="0.3">
       <c r="K74" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:22" x14ac:dyDescent="0.3">
       <c r="K75" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E76" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:22" x14ac:dyDescent="0.3">
       <c r="K77" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="3:21" ht="18" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:22" ht="18" x14ac:dyDescent="0.3">
       <c r="C78" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D78" s="14" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="E78" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G78" s="14" t="s">
-        <v>129</v>
-      </c>
-      <c r="H78" s="12" t="s">
-        <v>81</v>
+        <v>125</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>80</v>
       </c>
       <c r="K78" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="3:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C79" s="18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
-      <c r="H79" s="18"/>
+      <c r="H79" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="K79" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O79" s="5" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="80" spans="3:21" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="80" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C80" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
       <c r="F80" s="18"/>
       <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
       <c r="K80" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="11:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:18" x14ac:dyDescent="0.3">
       <c r="K81" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="11:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K82" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N82" s="12" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="O82" s="12" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P82" s="12" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q82" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="11:17" ht="15.6" x14ac:dyDescent="0.3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="4:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K83" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="O83" s="22">
         <v>5</v>
@@ -2928,12 +3082,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="11:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E84" s="5" t="s">
+        <v>206</v>
+      </c>
       <c r="K84" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
@@ -2941,25 +3098,34 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="11:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="K85" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
       <c r="Q85" s="21" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="86" spans="11:17" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="R85" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="86" spans="4:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D86" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="K86" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
@@ -2967,12 +3133,14 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="11:17" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
       <c r="K87" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
@@ -2980,47 +3148,58 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="11:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="15" t="s">
+        <v>199</v>
+      </c>
       <c r="K88" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="11:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
       <c r="K89" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="11:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
       <c r="K90" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="11:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:18" x14ac:dyDescent="0.3">
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
       <c r="K91" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="11:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:18" x14ac:dyDescent="0.3">
       <c r="K92" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="11:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:18" x14ac:dyDescent="0.3">
       <c r="K93" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="11:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:18" x14ac:dyDescent="0.3">
       <c r="K94" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="11:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:18" x14ac:dyDescent="0.3">
       <c r="K95" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="11:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:18" x14ac:dyDescent="0.3">
       <c r="K96" s="1" t="s">
         <v>1</v>
       </c>
@@ -3049,4 +3228,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{771D7D7C-4BA1-48ED-BA73-6212515FA1D4}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TABLE_DESIGN.xlsx
+++ b/TABLE_DESIGN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop Application\MARBLE SHOP MANAGEMENT\MARBLE-SHOP-MANAGEMENT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83745F34-389E-4997-A3BD-99B2ABB61127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90D2439C-0E93-4CBD-A185-BD0752F3A228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{37E38B85-17DB-4D72-9E0E-772FF93AC570}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="10332" windowHeight="6000" xr2:uid="{37E38B85-17DB-4D72-9E0E-772FF93AC570}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -290,16 +290,10 @@
     <t>DESCRIPATION</t>
   </si>
   <si>
-    <t>TBL_SALES_ITEMS_DETAILS</t>
-  </si>
-  <si>
     <t>SELL_ITEM_DETAILS_ID</t>
   </si>
   <si>
     <t>PRODUCT_MRP</t>
-  </si>
-  <si>
-    <t>PRODUCT_SALE_RATE</t>
   </si>
   <si>
     <t>PRODUCT_DISCOUNT</t>
@@ -678,6 +672,12 @@
   </si>
   <si>
     <t>TOTAL MRP</t>
+  </si>
+  <si>
+    <t>TBL_SELL_ITEMS_DETAILS</t>
+  </si>
+  <si>
+    <t>PRODUCT_SALE_MRP</t>
   </si>
 </sst>
 </file>
@@ -1215,8 +1215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CB3B1C-5827-43D0-ADC7-C6FD42213018}">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W40" sqref="W40"/>
+    <sheetView tabSelected="1" topLeftCell="P61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R86" sqref="R86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="25" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="1" t="s">
@@ -1333,7 +1333,7 @@
         <v>20</v>
       </c>
       <c r="Z3" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="3:26" x14ac:dyDescent="0.3">
@@ -1446,7 +1446,7 @@
     </row>
     <row r="10" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D10" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>38</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="11" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D11" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>40</v>
@@ -1492,13 +1492,13 @@
         <v>58</v>
       </c>
       <c r="S11" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>208</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="U11" s="2" t="s">
-        <v>210</v>
       </c>
       <c r="V11" s="2" t="s">
         <v>44</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="12" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D12" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>45</v>
@@ -1525,7 +1525,7 @@
         <v>1</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q12" s="4" t="s">
         <v>46</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="13" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D13" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>47</v>
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>1</v>
@@ -1564,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>46</v>
@@ -1579,12 +1579,12 @@
         <v>1</v>
       </c>
       <c r="W13" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D14" s="4" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>48</v>
@@ -1603,7 +1603,7 @@
         <v>3</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="Q14" s="4" t="s">
         <v>46</v>
@@ -1620,7 +1620,7 @@
     </row>
     <row r="15" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D15" s="4" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>49</v>
@@ -1639,7 +1639,7 @@
         <v>4</v>
       </c>
       <c r="P15" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q15" s="4" t="s">
         <v>46</v>
@@ -1656,7 +1656,7 @@
     </row>
     <row r="16" spans="3:26" x14ac:dyDescent="0.3">
       <c r="D16" s="4" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>47</v>
@@ -1674,7 +1674,7 @@
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D17" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>50</v>
@@ -1692,7 +1692,7 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D18" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>51</v>
@@ -1710,7 +1710,7 @@
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D19" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>52</v>
@@ -1768,10 +1768,10 @@
       </c>
       <c r="L22" s="1"/>
       <c r="N22" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="O22" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P22" s="4">
         <v>30</v>
@@ -1783,7 +1783,7 @@
         <v>20</v>
       </c>
       <c r="S22" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="T22" s="4">
         <v>1</v>
@@ -1795,10 +1795,10 @@
       </c>
       <c r="L23" s="1"/>
       <c r="N23" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="O23" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P23" s="4">
         <v>20</v>
@@ -1810,13 +1810,13 @@
         <v>10</v>
       </c>
       <c r="S23" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="T23" s="4">
         <v>0</v>
       </c>
       <c r="U23" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
@@ -1825,10 +1825,10 @@
       </c>
       <c r="L24" s="1"/>
       <c r="N24" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="O24" s="4" t="s">
         <v>129</v>
-      </c>
-      <c r="O24" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="P24" s="4">
         <v>30</v>
@@ -1840,7 +1840,7 @@
         <v>20</v>
       </c>
       <c r="S24" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="T24" s="4">
         <v>0</v>
@@ -1852,10 +1852,10 @@
       </c>
       <c r="L25" s="1"/>
       <c r="N25" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O25" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="P25" s="4">
         <v>30</v>
@@ -1867,7 +1867,7 @@
         <v>20</v>
       </c>
       <c r="S25" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="T25" s="4">
         <v>1</v>
@@ -1881,7 +1881,7 @@
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="F27" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K27" s="1" t="s">
         <v>1</v>
@@ -1911,10 +1911,10 @@
         <v>64</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>65</v>
@@ -1929,7 +1929,7 @@
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>22</v>
@@ -1947,13 +1947,13 @@
         <v>100</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I30" s="3">
         <v>1</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K30" s="1" t="s">
         <v>1</v>
@@ -1965,10 +1965,10 @@
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>22</v>
@@ -1986,13 +1986,13 @@
         <v>101</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I31" s="3">
         <v>1</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>1</v>
@@ -2001,7 +2001,7 @@
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>22</v>
@@ -2019,13 +2019,13 @@
         <v>102</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I32" s="3">
         <v>1</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K32" s="1" t="s">
         <v>1</v>
@@ -2034,7 +2034,7 @@
     </row>
     <row r="33" spans="2:28" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>22</v>
@@ -2052,13 +2052,13 @@
         <v>520</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="I33" s="3">
         <v>1</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>1</v>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="40" spans="2:28" x14ac:dyDescent="0.3">
       <c r="C40" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="4">
         <v>1</v>
@@ -2280,14 +2280,14 @@
         <v>82</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K40" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L40" s="1"/>
       <c r="R40" s="5" t="s">
-        <v>85</v>
+        <v>209</v>
       </c>
       <c r="W40" s="11"/>
       <c r="X40" s="11"/>
@@ -2322,7 +2322,7 @@
       </c>
       <c r="L42" s="1"/>
       <c r="N42" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>69</v>
@@ -2337,16 +2337,16 @@
         <v>43</v>
       </c>
       <c r="S42" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="T42" s="2" t="s">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="U42" s="2" t="s">
         <v>58</v>
       </c>
       <c r="V42" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="2:28" x14ac:dyDescent="0.3">
@@ -2361,13 +2361,13 @@
         <v>1</v>
       </c>
       <c r="P43" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R43" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="S43" s="4">
         <v>100</v>
@@ -2376,7 +2376,7 @@
         <v>100</v>
       </c>
       <c r="U43" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="V43" s="4">
         <v>0</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="45" spans="2:28" x14ac:dyDescent="0.3">
       <c r="D45" s="5" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K45" s="1" t="s">
         <v>1</v>
@@ -2417,16 +2417,16 @@
         <v>55</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K47" s="1" t="s">
         <v>1</v>
@@ -2435,45 +2435,45 @@
     </row>
     <row r="48" spans="2:28" x14ac:dyDescent="0.3">
       <c r="C48" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D48" s="17"/>
       <c r="E48" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G48" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K48" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L48" s="1"/>
       <c r="Q48" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="49" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C49" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D49" s="17"/>
       <c r="E49" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>22</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K49" s="1" t="s">
         <v>1</v>
@@ -2482,14 +2482,14 @@
     </row>
     <row r="50" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C50" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D50" s="17"/>
       <c r="E50" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F50" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G50" s="4" t="s">
         <v>22</v>
@@ -2499,37 +2499,37 @@
       </c>
       <c r="L50" s="1"/>
       <c r="N50" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q50" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="O50" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="P50" s="2" t="s">
+      <c r="R50" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="Q50" s="2" t="s">
+      <c r="S50" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="R50" s="2" t="s">
+      <c r="T50" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="S50" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="51" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C51" s="4" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D51" s="17"/>
       <c r="E51" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F51" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G51" s="4" t="s">
         <v>22</v>
@@ -2539,7 +2539,7 @@
       </c>
       <c r="L51" s="1"/>
       <c r="N51" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
@@ -2561,7 +2561,7 @@
       <c r="S52" s="4"/>
       <c r="T52" s="4"/>
       <c r="U52" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="3:23" x14ac:dyDescent="0.3">
@@ -2599,7 +2599,7 @@
     <row r="56" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C56" s="13"/>
       <c r="D56" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E56" s="13"/>
       <c r="K56" s="1" t="s">
@@ -2613,7 +2613,7 @@
       </c>
       <c r="L57" s="1"/>
       <c r="R57" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="3:23" x14ac:dyDescent="0.3">
@@ -2621,10 +2621,10 @@
         <v>59</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K58" s="1" t="s">
         <v>1</v>
@@ -2633,10 +2633,10 @@
     </row>
     <row r="59" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C59" s="4" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E59" s="4" t="s">
         <v>22</v>
@@ -2646,28 +2646,28 @@
       </c>
       <c r="L59" s="1"/>
       <c r="N59" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="O59" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="P59" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q59" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="R59" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="Q59" s="2" t="s">
+      <c r="S59" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="R59" s="2" t="s">
+      <c r="T59" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="S59" s="2" t="s">
+      <c r="U59" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="T59" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="U59" s="2" t="s">
-        <v>160</v>
       </c>
       <c r="V59" s="2" t="s">
         <v>36</v>
@@ -2676,26 +2676,26 @@
     </row>
     <row r="60" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C60" s="4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K60" s="1" t="s">
         <v>1</v>
       </c>
       <c r="L60" s="1"/>
       <c r="N60" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O60" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
@@ -2710,10 +2710,10 @@
     </row>
     <row r="61" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C61" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>22</v>
@@ -2732,15 +2732,15 @@
       <c r="U61" s="4"/>
       <c r="V61" s="4"/>
       <c r="W61" s="24" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C62" s="4" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E62" s="4" t="s">
         <v>22</v>
@@ -2762,10 +2762,10 @@
     </row>
     <row r="63" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C63" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E63" s="4" t="s">
         <v>22</v>
@@ -2787,10 +2787,10 @@
     </row>
     <row r="64" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C64" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E64" s="4" t="s">
         <v>22</v>
@@ -2811,16 +2811,16 @@
     </row>
     <row r="67" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E67" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K67" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="T67" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="3:22" x14ac:dyDescent="0.3">
@@ -2830,19 +2830,19 @@
     </row>
     <row r="69" spans="3:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C69" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E69" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="D69" s="12" t="s">
+      <c r="F69" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="E69" s="12" t="s">
+      <c r="G69" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="G69" s="12" t="s">
-        <v>121</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>80</v>
@@ -2851,19 +2851,19 @@
         <v>1</v>
       </c>
       <c r="N69" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="O69" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="O69" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="P69" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S69" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="T69" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="U69" s="2" t="s">
         <v>84</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="70" spans="3:22" ht="18" x14ac:dyDescent="0.3">
       <c r="C70" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D70" s="4"/>
       <c r="E70" s="4"/>
@@ -2882,19 +2882,19 @@
         <v>1</v>
       </c>
       <c r="N70" s="4" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="O70" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="P70" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="P70" s="4" t="s">
-        <v>170</v>
-      </c>
       <c r="S70" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="T70" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="U70" s="23" t="s">
         <v>82</v>
@@ -2908,34 +2908,34 @@
       <c r="G71" s="17"/>
       <c r="H71" s="17"/>
       <c r="I71" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K71" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N71" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O71" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="P71" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="Q71" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="S71" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="T71" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="U71" s="23" t="s">
         <v>82</v>
       </c>
       <c r="V71" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="72" spans="3:22" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
@@ -2949,19 +2949,19 @@
         <v>1</v>
       </c>
       <c r="N72" s="4" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="O72" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="P72" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="S72" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="T72" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="U72" s="23" t="s">
         <v>82</v>
@@ -2984,7 +2984,7 @@
     </row>
     <row r="76" spans="3:22" x14ac:dyDescent="0.3">
       <c r="E76" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K76" s="1" t="s">
         <v>1</v>
@@ -3000,13 +3000,13 @@
         <v>65</v>
       </c>
       <c r="D78" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="E78" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="F78" s="14" t="s">
         <v>123</v>
-      </c>
-      <c r="E78" s="14" t="s">
-        <v>124</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>125</v>
       </c>
       <c r="G78" s="12" t="s">
         <v>80</v>
@@ -3017,25 +3017,25 @@
     </row>
     <row r="79" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C79" s="18" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D79" s="18"/>
       <c r="E79" s="18"/>
       <c r="F79" s="18"/>
       <c r="G79" s="18"/>
       <c r="H79" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K79" s="1" t="s">
         <v>1</v>
       </c>
       <c r="O79" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="80" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C80" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
@@ -3055,13 +3055,13 @@
         <v>1</v>
       </c>
       <c r="N82" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="O82" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="P82" s="12" t="s">
         <v>183</v>
-      </c>
-      <c r="O82" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="P82" s="12" t="s">
-        <v>185</v>
       </c>
       <c r="Q82" s="12" t="s">
         <v>84</v>
@@ -3072,7 +3072,7 @@
         <v>1</v>
       </c>
       <c r="N83" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="O83" s="22">
         <v>5</v>
@@ -3084,13 +3084,13 @@
     </row>
     <row r="84" spans="4:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="E84" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K84" s="1" t="s">
         <v>1</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O84" s="4"/>
       <c r="P84" s="4"/>
@@ -3103,7 +3103,7 @@
         <v>1</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O85" s="4"/>
       <c r="P85" s="4"/>
@@ -3111,12 +3111,12 @@
         <v>22</v>
       </c>
       <c r="R85" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="4:18" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D86" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>12</v>
@@ -3125,7 +3125,7 @@
         <v>1</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="O86" s="4"/>
       <c r="P86" s="4"/>
@@ -3140,7 +3140,7 @@
         <v>1</v>
       </c>
       <c r="N87" s="4" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
@@ -3152,7 +3152,7 @@
       <c r="D88" s="17"/>
       <c r="E88" s="17"/>
       <c r="F88" s="15" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>1</v>
@@ -3245,22 +3245,22 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
